--- a/Reports/Reports_Excel/Report-3.xlsx
+++ b/Reports/Reports_Excel/Report-3.xlsx
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="82" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -28,22 +28,13 @@
     </font>
     <font/>
     <font>
-      <b val="0"/>
+      <b/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="28"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI Light"/>
-    </font>
-    <font>
-      <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
     </font>
     <font>
       <b val="0"/>
@@ -93,16 +84,16 @@
   <cellXfs count="5">
     <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="4" fillId="0" borderId="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="4" fillId="0" borderId="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="3" fillId="0" borderId="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -190,26 +181,26 @@
     <sheetView workbookViewId="0" showGridLines="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" customWidth="1" width="25.83203125"/>
+    <col min="1" max="1" customWidth="1" width="16.6015625"/>
     <col min="2" max="2" customWidth="1" width="13.7109375"/>
     <col min="3" max="3" customWidth="1" width="13.7109375"/>
     <col min="4" max="4" customWidth="1" width="13.7109375"/>
-    <col min="5" max="5" customWidth="1" width="8.44140625"/>
-    <col min="6" max="6" customWidth="1" width="54.79296875"/>
+    <col min="5" max="5" customWidth="1" width="17.68359375"/>
+    <col min="6" max="6" customWidth="1" width="10.8828125"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1">
       <c s="1" t="inlineStr" r="A1">
         <is>
-          <t xml:space="preserve"/>
+          <t xml:space="preserve">Instructure Report</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="36.65" customHeight="1"/>
+    <row r="2" ht="49.15" customHeight="1"/>
     <row r="3" ht="18" customHeight="0">
       <c s="2" t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">Full Name</t>
+          <t xml:space="preserve">Instr_Name</t>
         </is>
       </c>
       <c s="2" t="inlineStr" r="C3">
@@ -226,64 +217,19 @@
     <row r="4" ht="18" customHeight="0">
       <c s="3" t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">Abdelrahman Emam</t>
+          <t xml:space="preserve">Nahla Adly</t>
         </is>
       </c>
       <c s="3" t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">HTML</t>
+          <t xml:space="preserve">CSS</t>
         </is>
       </c>
       <c s="4" r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="0">
-      <c s="3" t="inlineStr" r="B5">
-        <is>
-          <t xml:space="preserve">Maha Elgendy</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="C5">
-        <is>
-          <t xml:space="preserve">C++</t>
-        </is>
-      </c>
-      <c s="4" r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="0">
-      <c s="3" t="inlineStr" r="B6">
-        <is>
-          <t xml:space="preserve">Mayar Ahmed</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="C6">
-        <is>
-          <t xml:space="preserve">C++</t>
-        </is>
-      </c>
-      <c s="4" r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="0">
-      <c s="3" t="inlineStr" r="B7">
-        <is>
-          <t xml:space="preserve">Nahla Adly</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="C7">
-        <is>
-          <t xml:space="preserve">CSS</t>
-        </is>
-      </c>
-      <c s="4" r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="53.35" customHeight="1"/>
+    <row r="5" ht="47.5" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:E1"/>
@@ -291,7 +237,7 @@
   <pageMargins left="1" right="1" top="1" bottom="1.45" header="1" footer="1"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;"Segoe UI,Regular"&amp;10  </oddFooter>
+    <oddFooter>&amp;R&amp;"Segoe UI,Regular"&amp;10 2/26/2023 11:39:07 PM </oddFooter>
   </headerFooter>
 </worksheet>
 </file>